--- a/Data/Discount_Cheker/CV Discount Check Master File 09.01.2026.xlsx
+++ b/Data/Discount_Cheker/CV Discount Check Master File 09.01.2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\To be Consider\01 Jan-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0761CC5-3033-4A7A-B986-7D6465934007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D4CCCB-2C8E-4116-8F0E-033D1264F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$2:$T$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$2:$S$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="119">
   <si>
     <t>Data Validation Prep.</t>
   </si>
@@ -536,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,12 +637,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1282,7 +1276,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1368,10 +1362,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="7" fillId="12" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="7" fillId="12" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1379,55 +1369,53 @@
     <xf numFmtId="43" fontId="7" fillId="12" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="7" fillId="12" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="19" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="19" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="19" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="18" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="18" borderId="41" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="18" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="7" fillId="8" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="7" fillId="8" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="7" fillId="8" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="7" fillId="8" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="20" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="19" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="20" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="19" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="21" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="20" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="21" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="20" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="20" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="19" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="23" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="22" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="23" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="22" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1443,10 +1431,10 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,6 +1465,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12772,8 +12766,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12860,14 +12854,14 @@
     </row>
     <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="9"/>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="71" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="17">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C5,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C5,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>772700</v>
       </c>
       <c r="E5" s="9"/>
@@ -12888,12 +12882,12 @@
     </row>
     <row r="6" spans="1:15" ht="18.75">
       <c r="A6" s="9"/>
-      <c r="B6" s="76"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="18">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C6,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C6,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -12914,12 +12908,12 @@
     </row>
     <row r="7" spans="1:15" ht="18.75">
       <c r="A7" s="9"/>
-      <c r="B7" s="76"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C7,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C7,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>46940</v>
       </c>
       <c r="E7" s="9"/>
@@ -12940,12 +12934,12 @@
     </row>
     <row r="8" spans="1:15" ht="18.75">
       <c r="A8" s="9"/>
-      <c r="B8" s="76"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="16" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C8,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C8,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>41590</v>
       </c>
       <c r="E8" s="9"/>
@@ -12966,12 +12960,12 @@
     </row>
     <row r="9" spans="1:15" ht="18.75">
       <c r="A9" s="9"/>
-      <c r="B9" s="76"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="16" t="s">
         <v>112</v>
       </c>
       <c r="D9" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C9,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C9,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>1519</v>
       </c>
       <c r="E9" s="9"/>
@@ -12992,12 +12986,12 @@
     </row>
     <row r="10" spans="1:15" ht="18.75">
       <c r="A10" s="9"/>
-      <c r="B10" s="76"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="16" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C10,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C10,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>19318</v>
       </c>
       <c r="E10" s="9"/>
@@ -13018,12 +13012,12 @@
     </row>
     <row r="11" spans="1:15" ht="18.75">
       <c r="A11" s="9"/>
-      <c r="B11" s="76"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C11,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C11,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>3500</v>
       </c>
       <c r="E11" s="9"/>
@@ -13044,12 +13038,12 @@
     </row>
     <row r="12" spans="1:15" ht="18.75">
       <c r="A12" s="9"/>
-      <c r="B12" s="76"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C12,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C12,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>12000</v>
       </c>
       <c r="E12" s="9"/>
@@ -13070,12 +13064,12 @@
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="76"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="20">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C13,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C13,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>897566</v>
       </c>
       <c r="E13" s="9"/>
@@ -13096,12 +13090,12 @@
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="76"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="14" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="21">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C14,Sheet1!$B$2:$Z$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C14,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>878249</v>
       </c>
       <c r="E14" s="9"/>
@@ -13122,14 +13116,14 @@
     </row>
     <row r="15" spans="1:15" ht="18.75">
       <c r="A15" s="9"/>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="66">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C15,Sheet1!$B$2:$Z$2,0),0),"")</f>
+      <c r="D15" s="62">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C15,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>30000</v>
       </c>
       <c r="E15" s="9"/>
@@ -13150,12 +13144,12 @@
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="74" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="67">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C16,Sheet1!$B$2:$Z$2,0),0),"")</f>
+      <c r="D16" s="63">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C16,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>0</v>
       </c>
       <c r="E16" s="9"/>
@@ -13176,14 +13170,14 @@
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="64">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C17,Sheet1!$B$2:$Z$2,0),0),"")</f>
+      <c r="D17" s="60">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C17,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>38000</v>
       </c>
       <c r="E17" s="9"/>
@@ -13200,12 +13194,12 @@
     </row>
     <row r="18" spans="1:15" ht="18.75">
       <c r="A18" s="9"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="62">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C18,Sheet1!$B$2:$Z$2,0),0),"")</f>
+      <c r="D18" s="58">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C18,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>10000</v>
       </c>
       <c r="E18" s="9"/>
@@ -13222,12 +13216,12 @@
     </row>
     <row r="19" spans="1:15" ht="18.75">
       <c r="A19" s="9"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="62">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C19,Sheet1!$B$2:$Z$2,0),0),"")</f>
+      <c r="D19" s="58">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C19,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>48000</v>
       </c>
       <c r="E19" s="9"/>
@@ -13244,12 +13238,12 @@
     </row>
     <row r="20" spans="1:15" ht="19.5" thickBot="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="63" t="s">
+      <c r="B20" s="75"/>
+      <c r="C20" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="68" t="str">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C20,Sheet1!$B$2:$Z$2,0),0),"")</f>
+      <c r="D20" s="64" t="str">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C20,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>100% Insurance + 12K Accessories + RSA FREE</v>
       </c>
       <c r="E20" s="9"/>
@@ -13266,14 +13260,14 @@
     </row>
     <row r="21" spans="1:15" ht="18.75">
       <c r="A21" s="9"/>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="69">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C21,Sheet1!$B$2:$Z$2,0),0),"")</f>
+      <c r="D21" s="65">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C21,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>35000</v>
       </c>
       <c r="E21" s="9"/>
@@ -13290,12 +13284,12 @@
     </row>
     <row r="22" spans="1:15" ht="19.5" thickBot="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="77"/>
+      <c r="C22" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="70">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Z$45,MATCH(Report!$C22,Sheet1!$B$2:$Z$2,0),0),"")</f>
+      <c r="D22" s="66">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C22,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>45000</v>
       </c>
       <c r="E22" s="9"/>
@@ -13534,10 +13528,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B23E6FD-7762-4C22-90E4-A9620B029028}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13554,43 +13548,43 @@
     <col min="15" max="15" width="11.7109375" style="12" customWidth="1"/>
     <col min="16" max="17" width="13" style="12" customWidth="1"/>
     <col min="18" max="18" width="42.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" style="12" customWidth="1"/>
-    <col min="20" max="21" width="10.5703125" style="12" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="12"/>
+    <col min="19" max="20" width="10.5703125" style="12" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A1" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="82" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="87" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89" t="s">
+      <c r="N1" s="84"/>
+      <c r="O1" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="89"/>
     </row>
-    <row r="2" spans="1:21" ht="75.75" thickBot="1">
+    <row r="2" spans="1:20" ht="75.75" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>63</v>
       </c>
@@ -13645,15 +13639,14 @@
       <c r="R2" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="53" t="s">
+      <c r="S2" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="T2" s="49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:20">
       <c r="A3" s="22" t="s">
         <v>18</v>
       </c>
@@ -13691,12 +13684,12 @@
       <c r="L3" s="29">
         <v>878249</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="53">
         <f>VLOOKUP(B3,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N3" s="58"/>
-      <c r="O3" s="44" cm="1">
+      <c r="N3" s="54"/>
+      <c r="O3" s="42" cm="1">
         <f t="array" ref="O3:Q3">VLOOKUP(B3,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
       </c>
@@ -13706,18 +13699,17 @@
       <c r="Q3" s="38">
         <v>48000</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="54">
+      <c r="S3" s="50">
         <v>35000</v>
       </c>
-      <c r="U3" s="54">
+      <c r="T3" s="50">
         <v>45000</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" s="24" t="s">
         <v>17</v>
       </c>
@@ -13755,12 +13747,12 @@
       <c r="L4" s="29">
         <v>868869</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="53">
         <f>VLOOKUP(B4,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N4" s="58"/>
-      <c r="O4" s="46" cm="1">
+      <c r="N4" s="54"/>
+      <c r="O4" s="44" cm="1">
         <f t="array" ref="O4:Q4">VLOOKUP(B4,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
       </c>
@@ -13770,18 +13762,17 @@
       <c r="Q4" s="35">
         <v>48000</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="55">
+      <c r="S4" s="51">
         <v>35000</v>
       </c>
-      <c r="U4" s="55">
+      <c r="T4" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:20">
       <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
@@ -13819,12 +13810,12 @@
       <c r="L5" s="29">
         <v>903088</v>
       </c>
-      <c r="M5" s="57">
+      <c r="M5" s="53">
         <f>VLOOKUP(B5,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="46" cm="1">
+      <c r="N5" s="54"/>
+      <c r="O5" s="44" cm="1">
         <f t="array" ref="O5:Q5">VLOOKUP(B5,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
       </c>
@@ -13834,18 +13825,17 @@
       <c r="Q5" s="35">
         <v>48000</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="55">
+      <c r="S5" s="51">
         <v>35000</v>
       </c>
-      <c r="U5" s="55">
+      <c r="T5" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:20">
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
@@ -13883,12 +13873,12 @@
       <c r="L6" s="29">
         <v>908075</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="53">
         <f>VLOOKUP(B6,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="46" cm="1">
+      <c r="N6" s="54"/>
+      <c r="O6" s="44" cm="1">
         <f t="array" ref="O6:Q6">VLOOKUP(B6,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
       </c>
@@ -13898,18 +13888,17 @@
       <c r="Q6" s="35">
         <v>48000</v>
       </c>
-      <c r="R6" s="47" t="s">
+      <c r="R6" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="S6" s="51"/>
-      <c r="T6" s="55">
+      <c r="S6" s="51">
         <v>35000</v>
       </c>
-      <c r="U6" s="55">
+      <c r="T6" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:20">
       <c r="A7" s="24" t="s">
         <v>20</v>
       </c>
@@ -13947,12 +13936,12 @@
       <c r="L7" s="29">
         <v>918053</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="53">
         <f>VLOOKUP(B7,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="46" cm="1">
+      <c r="N7" s="54"/>
+      <c r="O7" s="44" cm="1">
         <f t="array" ref="O7:Q7">VLOOKUP(B7,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
       </c>
@@ -13962,18 +13951,17 @@
       <c r="Q7" s="35">
         <v>48000</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="S7" s="51"/>
-      <c r="T7" s="55">
+      <c r="S7" s="51">
         <v>35000</v>
       </c>
-      <c r="U7" s="55">
+      <c r="T7" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:20">
       <c r="A8" s="24" t="s">
         <v>19</v>
       </c>
@@ -14011,12 +13999,12 @@
       <c r="L8" s="29">
         <v>897882</v>
       </c>
-      <c r="M8" s="57">
+      <c r="M8" s="53">
         <f>VLOOKUP(B8,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="46" cm="1">
+      <c r="N8" s="54"/>
+      <c r="O8" s="44" cm="1">
         <f t="array" ref="O8:Q8">VLOOKUP(B8,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
       </c>
@@ -14026,18 +14014,17 @@
       <c r="Q8" s="35">
         <v>48000</v>
       </c>
-      <c r="R8" s="47" t="s">
+      <c r="R8" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="S8" s="51"/>
-      <c r="T8" s="55">
+      <c r="S8" s="51">
         <v>35000</v>
       </c>
-      <c r="U8" s="55">
+      <c r="T8" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:20">
       <c r="A9" s="24" t="s">
         <v>23</v>
       </c>
@@ -14075,12 +14062,12 @@
       <c r="L9" s="29">
         <v>901245</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="53">
         <f>VLOOKUP(B9,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>65000</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="46" cm="1">
+      <c r="N9" s="54"/>
+      <c r="O9" s="44" cm="1">
         <f t="array" ref="O9:Q9">VLOOKUP(B9,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>65000</v>
       </c>
@@ -14090,18 +14077,17 @@
       <c r="Q9" s="35">
         <v>75000</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="55">
+      <c r="S9" s="51">
         <v>35000</v>
       </c>
-      <c r="U9" s="55">
+      <c r="T9" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20">
       <c r="A10" s="24" t="s">
         <v>15</v>
       </c>
@@ -14139,12 +14125,12 @@
       <c r="L10" s="29">
         <v>1033345</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="53">
         <f>VLOOKUP(B10,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="46" cm="1">
+      <c r="N10" s="54"/>
+      <c r="O10" s="44" cm="1">
         <f t="array" ref="O10:Q10">VLOOKUP(B10,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
       </c>
@@ -14154,18 +14140,17 @@
       <c r="Q10" s="35">
         <v>28000</v>
       </c>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="51"/>
-      <c r="T10" s="55">
+      <c r="S10" s="51">
         <v>35000</v>
       </c>
-      <c r="U10" s="55">
+      <c r="T10" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:20">
       <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
@@ -14203,12 +14188,12 @@
       <c r="L11" s="29">
         <v>1083078</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="53">
         <f>VLOOKUP(B11,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="46" cm="1">
+      <c r="N11" s="54"/>
+      <c r="O11" s="44" cm="1">
         <f t="array" ref="O11:Q11">VLOOKUP(B11,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>28000</v>
       </c>
@@ -14218,18 +14203,17 @@
       <c r="Q11" s="35">
         <v>33000</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="R11" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="51"/>
-      <c r="T11" s="55">
+      <c r="S11" s="51">
         <v>35000</v>
       </c>
-      <c r="U11" s="55">
+      <c r="T11" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:20">
       <c r="A12" s="24" t="s">
         <v>2</v>
       </c>
@@ -14267,12 +14251,12 @@
       <c r="L12" s="29">
         <v>1044748</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="53">
         <f>VLOOKUP(B12,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="46" cm="1">
+      <c r="N12" s="54"/>
+      <c r="O12" s="44" cm="1">
         <f t="array" ref="O12:Q12">VLOOKUP(B12,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>26000</v>
       </c>
@@ -14282,18 +14266,17 @@
       <c r="Q12" s="35">
         <v>31000</v>
       </c>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="S12" s="51"/>
-      <c r="T12" s="55">
+      <c r="S12" s="51">
         <v>35000</v>
       </c>
-      <c r="U12" s="55">
+      <c r="T12" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:20">
       <c r="A13" s="24" t="s">
         <v>1</v>
       </c>
@@ -14331,12 +14314,12 @@
       <c r="L13" s="29">
         <v>1018366</v>
       </c>
-      <c r="M13" s="57">
+      <c r="M13" s="53">
         <f>VLOOKUP(B13,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N13" s="58"/>
-      <c r="O13" s="46" cm="1">
+      <c r="N13" s="54"/>
+      <c r="O13" s="44" cm="1">
         <f t="array" ref="O13:Q13">VLOOKUP(B13,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>26000</v>
       </c>
@@ -14346,18 +14329,17 @@
       <c r="Q13" s="35">
         <v>31000</v>
       </c>
-      <c r="R13" s="47" t="s">
+      <c r="R13" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="S13" s="51"/>
-      <c r="T13" s="55">
+      <c r="S13" s="51">
         <v>35000</v>
       </c>
-      <c r="U13" s="55">
+      <c r="T13" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:20">
       <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
@@ -14395,12 +14377,12 @@
       <c r="L14" s="29">
         <v>1074544</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="53">
         <f>VLOOKUP(B14,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N14" s="58"/>
-      <c r="O14" s="46" cm="1">
+      <c r="N14" s="54"/>
+      <c r="O14" s="44" cm="1">
         <f t="array" ref="O14:Q14">VLOOKUP(B14,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>35000</v>
       </c>
@@ -14410,18 +14392,17 @@
       <c r="Q14" s="35">
         <v>40000</v>
       </c>
-      <c r="R14" s="47" t="s">
+      <c r="R14" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="S14" s="51"/>
-      <c r="T14" s="55">
+      <c r="S14" s="51">
         <v>35000</v>
       </c>
-      <c r="U14" s="55">
+      <c r="T14" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:20">
       <c r="A15" s="24" t="s">
         <v>4</v>
       </c>
@@ -14459,12 +14440,12 @@
       <c r="L15" s="29">
         <v>1089497</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="53">
         <f>VLOOKUP(B15,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N15" s="58"/>
-      <c r="O15" s="46" cm="1">
+      <c r="N15" s="54"/>
+      <c r="O15" s="44" cm="1">
         <f t="array" ref="O15:Q15">VLOOKUP(B15,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>29000</v>
       </c>
@@ -14474,18 +14455,17 @@
       <c r="Q15" s="35">
         <v>34000</v>
       </c>
-      <c r="R15" s="47" t="s">
+      <c r="R15" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="S15" s="51"/>
-      <c r="T15" s="55">
+      <c r="S15" s="51">
         <v>35000</v>
       </c>
-      <c r="U15" s="55">
+      <c r="T15" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:20">
       <c r="A16" s="24" t="s">
         <v>3</v>
       </c>
@@ -14523,12 +14503,12 @@
       <c r="L16" s="29">
         <v>1071482</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="53">
         <f>VLOOKUP(B16,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N16" s="58"/>
-      <c r="O16" s="46" cm="1">
+      <c r="N16" s="54"/>
+      <c r="O16" s="44" cm="1">
         <f t="array" ref="O16:Q16">VLOOKUP(B16,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>35000</v>
       </c>
@@ -14538,18 +14518,17 @@
       <c r="Q16" s="35">
         <v>40000</v>
       </c>
-      <c r="R16" s="47" t="s">
+      <c r="R16" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="S16" s="51"/>
-      <c r="T16" s="55">
+      <c r="S16" s="51">
         <v>35000</v>
       </c>
-      <c r="U16" s="55">
+      <c r="T16" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:20">
       <c r="A17" s="24" t="s">
         <v>6</v>
       </c>
@@ -14587,12 +14566,12 @@
       <c r="L17" s="29">
         <v>1069559</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="53">
         <f>VLOOKUP(B17,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>25000</v>
       </c>
-      <c r="N17" s="58"/>
-      <c r="O17" s="46" cm="1">
+      <c r="N17" s="54"/>
+      <c r="O17" s="44" cm="1">
         <f t="array" ref="O17:Q17">VLOOKUP(B17,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>29000</v>
       </c>
@@ -14602,18 +14581,17 @@
       <c r="Q17" s="35">
         <v>34000</v>
       </c>
-      <c r="R17" s="47" t="s">
+      <c r="R17" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="51"/>
-      <c r="T17" s="55">
+      <c r="S17" s="51">
         <v>35000</v>
       </c>
-      <c r="U17" s="55">
+      <c r="T17" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:20">
       <c r="A18" s="24" t="s">
         <v>8</v>
       </c>
@@ -14651,12 +14629,12 @@
       <c r="L18" s="29">
         <v>1099356</v>
       </c>
-      <c r="M18" s="57">
+      <c r="M18" s="53">
         <f>VLOOKUP(B18,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="46" cm="1">
+      <c r="N18" s="54"/>
+      <c r="O18" s="44" cm="1">
         <f t="array" ref="O18:Q18">VLOOKUP(B18,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>32000</v>
       </c>
@@ -14666,18 +14644,17 @@
       <c r="Q18" s="35">
         <v>37000</v>
       </c>
-      <c r="R18" s="47" t="s">
+      <c r="R18" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="S18" s="51"/>
-      <c r="T18" s="55">
+      <c r="S18" s="51">
         <v>35000</v>
       </c>
-      <c r="U18" s="55">
+      <c r="T18" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:20">
       <c r="A19" s="24" t="s">
         <v>9</v>
       </c>
@@ -14715,12 +14692,12 @@
       <c r="L19" s="29">
         <v>1099356</v>
       </c>
-      <c r="M19" s="57">
+      <c r="M19" s="53">
         <f>VLOOKUP(B19,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N19" s="58"/>
-      <c r="O19" s="46" cm="1">
+      <c r="N19" s="54"/>
+      <c r="O19" s="44" cm="1">
         <f t="array" ref="O19:Q19">VLOOKUP(B19,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>25000</v>
       </c>
@@ -14730,18 +14707,17 @@
       <c r="Q19" s="35">
         <v>30000</v>
       </c>
-      <c r="R19" s="47" t="s">
+      <c r="R19" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="S19" s="51"/>
-      <c r="T19" s="55">
+      <c r="S19" s="51">
         <v>35000</v>
       </c>
-      <c r="U19" s="55">
+      <c r="T19" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:20">
       <c r="A20" s="24" t="s">
         <v>7</v>
       </c>
@@ -14779,12 +14755,12 @@
       <c r="L20" s="29">
         <v>1083480</v>
       </c>
-      <c r="M20" s="57">
+      <c r="M20" s="53">
         <f>VLOOKUP(B20,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="46" cm="1">
+      <c r="N20" s="54"/>
+      <c r="O20" s="44" cm="1">
         <f t="array" ref="O20:Q20">VLOOKUP(B20,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>32000</v>
       </c>
@@ -14794,18 +14770,17 @@
       <c r="Q20" s="35">
         <v>37000</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="S20" s="51"/>
-      <c r="T20" s="55">
+      <c r="S20" s="51">
         <v>35000</v>
       </c>
-      <c r="U20" s="55">
+      <c r="T20" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:20">
       <c r="A21" s="24" t="s">
         <v>68</v>
       </c>
@@ -14843,12 +14818,12 @@
       <c r="L21" s="29">
         <v>1163371</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="53">
         <f>VLOOKUP(B21,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>65000</v>
       </c>
-      <c r="N21" s="58"/>
-      <c r="O21" s="46" cm="1">
+      <c r="N21" s="54"/>
+      <c r="O21" s="44" cm="1">
         <f t="array" ref="O21:Q21">VLOOKUP(B21,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>65000</v>
       </c>
@@ -14858,18 +14833,17 @@
       <c r="Q21" s="35">
         <v>70000</v>
       </c>
-      <c r="R21" s="47" t="s">
+      <c r="R21" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="51"/>
-      <c r="T21" s="55">
+      <c r="S21" s="51">
         <v>35000</v>
       </c>
-      <c r="U21" s="55">
+      <c r="T21" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:20">
       <c r="A22" s="24" t="s">
         <v>11</v>
       </c>
@@ -14907,12 +14881,12 @@
       <c r="L22" s="29">
         <v>1150164</v>
       </c>
-      <c r="M22" s="57">
+      <c r="M22" s="53">
         <f>VLOOKUP(B22,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="46" cm="1">
+      <c r="N22" s="54"/>
+      <c r="O22" s="44" cm="1">
         <f t="array" ref="O22:Q22">VLOOKUP(B22,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>24500</v>
       </c>
@@ -14922,18 +14896,17 @@
       <c r="Q22" s="35">
         <v>29500</v>
       </c>
-      <c r="R22" s="47" t="s">
+      <c r="R22" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="S22" s="51"/>
-      <c r="T22" s="55">
+      <c r="S22" s="51">
         <v>35000</v>
       </c>
-      <c r="U22" s="55">
+      <c r="T22" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:20">
       <c r="A23" s="24" t="s">
         <v>10</v>
       </c>
@@ -14971,12 +14944,12 @@
       <c r="L23" s="29">
         <v>1104726</v>
       </c>
-      <c r="M23" s="57">
+      <c r="M23" s="53">
         <f>VLOOKUP(B23,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="46" cm="1">
+      <c r="N23" s="54"/>
+      <c r="O23" s="44" cm="1">
         <f t="array" ref="O23:Q23">VLOOKUP(B23,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>24500</v>
       </c>
@@ -14986,18 +14959,17 @@
       <c r="Q23" s="35">
         <v>29500</v>
       </c>
-      <c r="R23" s="47" t="s">
+      <c r="R23" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="S23" s="51"/>
-      <c r="T23" s="55">
+      <c r="S23" s="51">
         <v>35000</v>
       </c>
-      <c r="U23" s="55">
+      <c r="T23" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:20">
       <c r="A24" s="24" t="s">
         <v>13</v>
       </c>
@@ -15035,12 +15007,12 @@
       <c r="L24" s="29">
         <v>1176129</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="53">
         <f>VLOOKUP(B24,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N24" s="58"/>
-      <c r="O24" s="46" cm="1">
+      <c r="N24" s="54"/>
+      <c r="O24" s="44" cm="1">
         <f t="array" ref="O24:Q24">VLOOKUP(B24,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
       </c>
@@ -15050,18 +15022,17 @@
       <c r="Q24" s="35">
         <v>28000</v>
       </c>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="S24" s="51"/>
-      <c r="T24" s="55">
+      <c r="S24" s="51">
         <v>35000</v>
       </c>
-      <c r="U24" s="55">
+      <c r="T24" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:20">
       <c r="A25" s="24" t="s">
         <v>69</v>
       </c>
@@ -15099,12 +15070,12 @@
       <c r="L25" s="29">
         <v>1160306</v>
       </c>
-      <c r="M25" s="57">
+      <c r="M25" s="53">
         <f>VLOOKUP(B25,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N25" s="58"/>
-      <c r="O25" s="46" cm="1">
+      <c r="N25" s="54"/>
+      <c r="O25" s="44" cm="1">
         <f t="array" ref="O25:Q25">VLOOKUP(B25,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>24500</v>
       </c>
@@ -15114,18 +15085,17 @@
       <c r="Q25" s="35">
         <v>29500</v>
       </c>
-      <c r="R25" s="47" t="s">
+      <c r="R25" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="S25" s="51"/>
-      <c r="T25" s="55">
+      <c r="S25" s="51">
         <v>35000</v>
       </c>
-      <c r="U25" s="55">
+      <c r="T25" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:20">
       <c r="A26" s="24" t="s">
         <v>71</v>
       </c>
@@ -15163,12 +15133,12 @@
       <c r="L26" s="29">
         <v>1114801</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="53">
         <f>VLOOKUP(B26,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N26" s="58"/>
-      <c r="O26" s="46" cm="1">
+      <c r="N26" s="54"/>
+      <c r="O26" s="44" cm="1">
         <f t="array" ref="O26:Q26">VLOOKUP(B26,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>24500</v>
       </c>
@@ -15178,18 +15148,17 @@
       <c r="Q26" s="35">
         <v>29500</v>
       </c>
-      <c r="R26" s="47" t="s">
+      <c r="R26" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="S26" s="51"/>
-      <c r="T26" s="55">
+      <c r="S26" s="51">
         <v>35000</v>
       </c>
-      <c r="U26" s="55">
+      <c r="T26" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:20">
       <c r="A27" s="24" t="s">
         <v>14</v>
       </c>
@@ -15227,12 +15196,12 @@
       <c r="L27" s="29">
         <v>1190487</v>
       </c>
-      <c r="M27" s="57">
+      <c r="M27" s="53">
         <f>VLOOKUP(B27,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N27" s="58"/>
-      <c r="O27" s="46" cm="1">
+      <c r="N27" s="54"/>
+      <c r="O27" s="44" cm="1">
         <f t="array" ref="O27:Q27">VLOOKUP(B27,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
       </c>
@@ -15242,18 +15211,17 @@
       <c r="Q27" s="35">
         <v>28000</v>
       </c>
-      <c r="R27" s="47" t="s">
+      <c r="R27" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="51"/>
-      <c r="T27" s="55">
+      <c r="S27" s="51">
         <v>35000</v>
       </c>
-      <c r="U27" s="55">
+      <c r="T27" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:20">
       <c r="A28" s="24" t="s">
         <v>12</v>
       </c>
@@ -15291,12 +15259,12 @@
       <c r="L28" s="29">
         <v>1171110</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="53">
         <f>VLOOKUP(B28,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N28" s="58"/>
-      <c r="O28" s="46" cm="1">
+      <c r="N28" s="54"/>
+      <c r="O28" s="44" cm="1">
         <f t="array" ref="O28:Q28">VLOOKUP(B28,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
       </c>
@@ -15306,18 +15274,17 @@
       <c r="Q28" s="35">
         <v>28000</v>
       </c>
-      <c r="R28" s="47" t="s">
+      <c r="R28" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="S28" s="51"/>
-      <c r="T28" s="55">
+      <c r="S28" s="51">
         <v>35000</v>
       </c>
-      <c r="U28" s="55">
+      <c r="T28" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:20">
       <c r="A29" s="24" t="s">
         <v>64</v>
       </c>
@@ -15355,12 +15322,12 @@
       <c r="L29" s="29">
         <v>1078509</v>
       </c>
-      <c r="M29" s="57">
+      <c r="M29" s="53">
         <f>VLOOKUP(B29,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>65000</v>
       </c>
-      <c r="N29" s="58"/>
-      <c r="O29" s="46" cm="1">
+      <c r="N29" s="54"/>
+      <c r="O29" s="44" cm="1">
         <f t="array" ref="O29:Q29">VLOOKUP(B29,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>65000</v>
       </c>
@@ -15370,18 +15337,17 @@
       <c r="Q29" s="35">
         <v>70000</v>
       </c>
-      <c r="R29" s="47" t="s">
+      <c r="R29" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="51"/>
-      <c r="T29" s="55">
+      <c r="S29" s="51">
         <v>35000</v>
       </c>
-      <c r="U29" s="55">
+      <c r="T29" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:20">
       <c r="A30" s="24" t="s">
         <v>27</v>
       </c>
@@ -15419,12 +15385,12 @@
       <c r="L30" s="29">
         <v>1003539</v>
       </c>
-      <c r="M30" s="57">
+      <c r="M30" s="53">
         <f>VLOOKUP(B30,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="46" cm="1">
+      <c r="N30" s="54"/>
+      <c r="O30" s="44" cm="1">
         <f t="array" ref="O30:Q30">VLOOKUP(B30,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>20000</v>
       </c>
@@ -15434,18 +15400,17 @@
       <c r="Q30" s="35">
         <v>25000</v>
       </c>
-      <c r="R30" s="47" t="s">
+      <c r="R30" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="S30" s="51"/>
-      <c r="T30" s="55">
+      <c r="S30" s="51">
         <v>35000</v>
       </c>
-      <c r="U30" s="55">
+      <c r="T30" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:20">
       <c r="A31" s="24" t="s">
         <v>26</v>
       </c>
@@ -15483,12 +15448,12 @@
       <c r="L31" s="29">
         <v>1095980</v>
       </c>
-      <c r="M31" s="57">
+      <c r="M31" s="53">
         <f>VLOOKUP(B31,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N31" s="58"/>
-      <c r="O31" s="46" cm="1">
+      <c r="N31" s="54"/>
+      <c r="O31" s="44" cm="1">
         <f t="array" ref="O31:Q31">VLOOKUP(B31,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>20000</v>
       </c>
@@ -15498,18 +15463,17 @@
       <c r="Q31" s="35">
         <v>25000</v>
       </c>
-      <c r="R31" s="47" t="s">
+      <c r="R31" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="S31" s="51"/>
-      <c r="T31" s="55">
+      <c r="S31" s="51">
         <v>35000</v>
       </c>
-      <c r="U31" s="55">
+      <c r="T31" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:20">
       <c r="A32" s="24" t="s">
         <v>28</v>
       </c>
@@ -15547,12 +15511,12 @@
       <c r="L32" s="29">
         <v>1125112</v>
       </c>
-      <c r="M32" s="57">
+      <c r="M32" s="53">
         <f>VLOOKUP(B32,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="46" cm="1">
+      <c r="N32" s="54"/>
+      <c r="O32" s="44" cm="1">
         <f t="array" ref="O32:Q32">VLOOKUP(B32,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>20000</v>
       </c>
@@ -15562,18 +15526,17 @@
       <c r="Q32" s="35">
         <v>25000</v>
       </c>
-      <c r="R32" s="47" t="s">
+      <c r="R32" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="S32" s="51"/>
-      <c r="T32" s="55">
+      <c r="S32" s="51">
         <v>35000</v>
       </c>
-      <c r="U32" s="55">
+      <c r="T32" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:20">
       <c r="A33" s="24" t="s">
         <v>62</v>
       </c>
@@ -15611,12 +15574,12 @@
       <c r="L33" s="29">
         <v>1041306</v>
       </c>
-      <c r="M33" s="57">
+      <c r="M33" s="53">
         <f>VLOOKUP(B33,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="46" cm="1">
+      <c r="N33" s="54"/>
+      <c r="O33" s="44" cm="1">
         <f t="array" ref="O33:Q33">VLOOKUP(B33,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>15000</v>
       </c>
@@ -15626,18 +15589,17 @@
       <c r="Q33" s="35">
         <v>20000</v>
       </c>
-      <c r="R33" s="47" t="s">
+      <c r="R33" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="51"/>
-      <c r="T33" s="55">
+      <c r="S33" s="51">
         <v>35000</v>
       </c>
-      <c r="U33" s="55">
+      <c r="T33" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:20">
       <c r="A34" s="24" t="s">
         <v>29</v>
       </c>
@@ -15675,12 +15637,12 @@
       <c r="L34" s="29">
         <v>1125493</v>
       </c>
-      <c r="M34" s="57">
+      <c r="M34" s="53">
         <f>VLOOKUP(B34,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="46" cm="1">
+      <c r="N34" s="54"/>
+      <c r="O34" s="44" cm="1">
         <f t="array" ref="O34:Q34">VLOOKUP(B34,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>15000</v>
       </c>
@@ -15690,18 +15652,17 @@
       <c r="Q34" s="35">
         <v>20000</v>
       </c>
-      <c r="R34" s="47" t="s">
+      <c r="R34" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="S34" s="51"/>
-      <c r="T34" s="55">
+      <c r="S34" s="51">
         <v>35000</v>
       </c>
-      <c r="U34" s="55">
+      <c r="T34" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:20">
       <c r="A35" s="24" t="s">
         <v>24</v>
       </c>
@@ -15739,12 +15700,12 @@
       <c r="L35" s="29">
         <v>1083298</v>
       </c>
-      <c r="M35" s="57">
+      <c r="M35" s="53">
         <f>VLOOKUP(B35,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N35" s="58"/>
-      <c r="O35" s="46" cm="1">
+      <c r="N35" s="54"/>
+      <c r="O35" s="44" cm="1">
         <f t="array" ref="O35:Q35">VLOOKUP(B35,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
       </c>
@@ -15754,18 +15715,17 @@
       <c r="Q35" s="35">
         <v>28000</v>
       </c>
-      <c r="R35" s="47" t="s">
+      <c r="R35" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="S35" s="51"/>
-      <c r="T35" s="55">
+      <c r="S35" s="51">
         <v>35000</v>
       </c>
-      <c r="U35" s="55">
+      <c r="T35" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1">
+    <row r="36" spans="1:20" ht="15.75" thickBot="1">
       <c r="A36" s="24" t="s">
         <v>25</v>
       </c>
@@ -15803,39 +15763,38 @@
       <c r="L36" s="29">
         <v>1108109</v>
       </c>
-      <c r="M36" s="59">
+      <c r="M36" s="55">
         <f>VLOOKUP(B36,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N36" s="60"/>
-      <c r="O36" s="48" cm="1">
+      <c r="N36" s="56"/>
+      <c r="O36" s="46" cm="1">
         <f t="array" ref="O36:Q36">VLOOKUP(B36,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
       </c>
-      <c r="P36" s="49">
+      <c r="P36" s="47">
         <v>5000</v>
       </c>
-      <c r="Q36" s="49">
+      <c r="Q36" s="47">
         <v>28000</v>
       </c>
-      <c r="R36" s="50" t="s">
+      <c r="R36" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="S36" s="51"/>
-      <c r="T36" s="56">
+      <c r="S36" s="52">
         <v>35000</v>
       </c>
-      <c r="U36" s="56">
+      <c r="T36" s="52">
         <v>45000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T36" xr:uid="{8B23E6FD-7762-4C22-90E4-A9620B029028}"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16079,6 +16038,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060EDED336F4AC345937821C4378B0575" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="494f29b6abfd1a658fb4a91257319fb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cc81ea25-3c65-47fe-b799-37236d34457b" xmlns:ns4="3aa501bf-b653-40a4-9ae9-61a4d1229c70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79a9a6d6e67940bfc0c15f927b8771f4" ns3:_="" ns4:_="">
     <xsd:import namespace="cc81ea25-3c65-47fe-b799-37236d34457b"/>
@@ -16301,15 +16269,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -16317,6 +16276,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6B08E05-D3E6-4391-8AA6-C9B1EA9A23D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16335,14 +16302,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
   <ds:schemaRefs>

--- a/Data/Discount_Cheker/CV Discount Check Master File 09.01.2026.xlsx
+++ b/Data/Discount_Cheker/CV Discount Check Master File 09.01.2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\To be Consider\01 Jan-2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nisha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D4CCCB-2C8E-4116-8F0E-033D1264F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E34905-54D4-489A-9936-A52E31BFBC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="119">
   <si>
     <t>Data Validation Prep.</t>
   </si>
@@ -13148,9 +13148,9 @@
       <c r="C16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="63" t="str">
         <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C16,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>0</v>
+        <v>100% Insurance + 12K Accessories + RSA FREE</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="30">
@@ -13530,8 +13530,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13584,7 +13584,7 @@
       </c>
       <c r="T1" s="89"/>
     </row>
-    <row r="2" spans="1:20" ht="75.75" thickBot="1">
+    <row r="2" spans="1:20" ht="90.75" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>63</v>
       </c>
@@ -13688,7 +13688,9 @@
         <f>VLOOKUP(B3,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N3" s="54"/>
+      <c r="N3" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="O3" s="42" cm="1">
         <f t="array" ref="O3:Q3">VLOOKUP(B3,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
@@ -13751,7 +13753,9 @@
         <f>VLOOKUP(B4,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N4" s="54"/>
+      <c r="N4" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="O4" s="44" cm="1">
         <f t="array" ref="O4:Q4">VLOOKUP(B4,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
@@ -13814,7 +13818,9 @@
         <f>VLOOKUP(B5,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N5" s="54"/>
+      <c r="N5" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="O5" s="44" cm="1">
         <f t="array" ref="O5:Q5">VLOOKUP(B5,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
@@ -13877,7 +13883,9 @@
         <f>VLOOKUP(B6,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="O6" s="44" cm="1">
         <f t="array" ref="O6:Q6">VLOOKUP(B6,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
@@ -13940,7 +13948,9 @@
         <f>VLOOKUP(B7,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="O7" s="44" cm="1">
         <f t="array" ref="O7:Q7">VLOOKUP(B7,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
@@ -14003,7 +14013,9 @@
         <f>VLOOKUP(B8,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>30000</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="54" t="s">
+        <v>89</v>
+      </c>
       <c r="O8" s="44" cm="1">
         <f t="array" ref="O8:Q8">VLOOKUP(B8,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>38000</v>
@@ -14066,7 +14078,9 @@
         <f>VLOOKUP(B9,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>65000</v>
       </c>
-      <c r="N9" s="54"/>
+      <c r="N9" s="54" t="s">
+        <v>86</v>
+      </c>
       <c r="O9" s="44" cm="1">
         <f t="array" ref="O9:Q9">VLOOKUP(B9,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>65000</v>
@@ -14129,7 +14143,9 @@
         <f>VLOOKUP(B10,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N10" s="54"/>
+      <c r="N10" s="54" t="s">
+        <v>77</v>
+      </c>
       <c r="O10" s="44" cm="1">
         <f t="array" ref="O10:Q10">VLOOKUP(B10,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
@@ -14192,7 +14208,9 @@
         <f>VLOOKUP(B11,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="54" t="s">
+        <v>77</v>
+      </c>
       <c r="O11" s="44" cm="1">
         <f t="array" ref="O11:Q11">VLOOKUP(B11,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>28000</v>
@@ -14255,7 +14273,9 @@
         <f>VLOOKUP(B12,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="54" t="s">
+        <v>87</v>
+      </c>
       <c r="O12" s="44" cm="1">
         <f t="array" ref="O12:Q12">VLOOKUP(B12,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>26000</v>
@@ -14318,7 +14338,9 @@
         <f>VLOOKUP(B13,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N13" s="54"/>
+      <c r="N13" s="54" t="s">
+        <v>87</v>
+      </c>
       <c r="O13" s="44" cm="1">
         <f t="array" ref="O13:Q13">VLOOKUP(B13,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>26000</v>
@@ -14381,7 +14403,9 @@
         <f>VLOOKUP(B14,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N14" s="54"/>
+      <c r="N14" s="54" t="s">
+        <v>88</v>
+      </c>
       <c r="O14" s="44" cm="1">
         <f t="array" ref="O14:Q14">VLOOKUP(B14,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>35000</v>
@@ -14444,7 +14468,9 @@
         <f>VLOOKUP(B15,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N15" s="54"/>
+      <c r="N15" s="54" t="s">
+        <v>87</v>
+      </c>
       <c r="O15" s="44" cm="1">
         <f t="array" ref="O15:Q15">VLOOKUP(B15,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>29000</v>
@@ -14507,7 +14533,9 @@
         <f>VLOOKUP(B16,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N16" s="54"/>
+      <c r="N16" s="54" t="s">
+        <v>94</v>
+      </c>
       <c r="O16" s="44" cm="1">
         <f t="array" ref="O16:Q16">VLOOKUP(B16,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>35000</v>
@@ -14570,7 +14598,9 @@
         <f>VLOOKUP(B17,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>25000</v>
       </c>
-      <c r="N17" s="54"/>
+      <c r="N17" s="54" t="s">
+        <v>87</v>
+      </c>
       <c r="O17" s="44" cm="1">
         <f t="array" ref="O17:Q17">VLOOKUP(B17,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>29000</v>
@@ -14633,7 +14663,9 @@
         <f>VLOOKUP(B18,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N18" s="54"/>
+      <c r="N18" s="54" t="s">
+        <v>88</v>
+      </c>
       <c r="O18" s="44" cm="1">
         <f t="array" ref="O18:Q18">VLOOKUP(B18,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>32000</v>
@@ -14696,7 +14728,9 @@
         <f>VLOOKUP(B19,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N19" s="54"/>
+      <c r="N19" s="54" t="s">
+        <v>87</v>
+      </c>
       <c r="O19" s="44" cm="1">
         <f t="array" ref="O19:Q19">VLOOKUP(B19,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>25000</v>
@@ -14759,7 +14793,9 @@
         <f>VLOOKUP(B20,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>20000</v>
       </c>
-      <c r="N20" s="54"/>
+      <c r="N20" s="54" t="s">
+        <v>94</v>
+      </c>
       <c r="O20" s="44" cm="1">
         <f t="array" ref="O20:Q20">VLOOKUP(B20,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>32000</v>
@@ -14822,7 +14858,9 @@
         <f>VLOOKUP(B21,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>65000</v>
       </c>
-      <c r="N21" s="54"/>
+      <c r="N21" s="54" t="s">
+        <v>91</v>
+      </c>
       <c r="O21" s="44" cm="1">
         <f t="array" ref="O21:Q21">VLOOKUP(B21,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>65000</v>
@@ -14885,7 +14923,9 @@
         <f>VLOOKUP(B22,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N22" s="54"/>
+      <c r="N22" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="O22" s="44" cm="1">
         <f t="array" ref="O22:Q22">VLOOKUP(B22,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>24500</v>
@@ -14948,7 +14988,9 @@
         <f>VLOOKUP(B23,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N23" s="54"/>
+      <c r="N23" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="O23" s="44" cm="1">
         <f t="array" ref="O23:Q23">VLOOKUP(B23,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>24500</v>
@@ -15011,7 +15053,9 @@
         <f>VLOOKUP(B24,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N24" s="54"/>
+      <c r="N24" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="O24" s="44" cm="1">
         <f t="array" ref="O24:Q24">VLOOKUP(B24,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
@@ -15074,7 +15118,9 @@
         <f>VLOOKUP(B25,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N25" s="54"/>
+      <c r="N25" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="O25" s="44" cm="1">
         <f t="array" ref="O25:Q25">VLOOKUP(B25,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>24500</v>
@@ -15137,7 +15183,9 @@
         <f>VLOOKUP(B26,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N26" s="54"/>
+      <c r="N26" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="O26" s="44" cm="1">
         <f t="array" ref="O26:Q26">VLOOKUP(B26,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>24500</v>
@@ -15200,7 +15248,9 @@
         <f>VLOOKUP(B27,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N27" s="54"/>
+      <c r="N27" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="O27" s="44" cm="1">
         <f t="array" ref="O27:Q27">VLOOKUP(B27,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
@@ -15263,7 +15313,9 @@
         <f>VLOOKUP(B28,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>10000</v>
       </c>
-      <c r="N28" s="54"/>
+      <c r="N28" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="O28" s="44" cm="1">
         <f t="array" ref="O28:Q28">VLOOKUP(B28,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
@@ -15326,7 +15378,9 @@
         <f>VLOOKUP(B29,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>65000</v>
       </c>
-      <c r="N29" s="54"/>
+      <c r="N29" s="54" t="s">
+        <v>91</v>
+      </c>
       <c r="O29" s="44" cm="1">
         <f t="array" ref="O29:Q29">VLOOKUP(B29,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>65000</v>
@@ -15389,7 +15443,9 @@
         <f>VLOOKUP(B30,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N30" s="54"/>
+      <c r="N30" s="54" t="s">
+        <v>93</v>
+      </c>
       <c r="O30" s="44" cm="1">
         <f t="array" ref="O30:Q30">VLOOKUP(B30,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>20000</v>
@@ -15452,7 +15508,9 @@
         <f>VLOOKUP(B31,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N31" s="54"/>
+      <c r="N31" s="54" t="s">
+        <v>93</v>
+      </c>
       <c r="O31" s="44" cm="1">
         <f t="array" ref="O31:Q31">VLOOKUP(B31,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>20000</v>
@@ -15515,7 +15573,9 @@
         <f>VLOOKUP(B32,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N32" s="54"/>
+      <c r="N32" s="54" t="s">
+        <v>93</v>
+      </c>
       <c r="O32" s="44" cm="1">
         <f t="array" ref="O32:Q32">VLOOKUP(B32,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>20000</v>
@@ -15578,7 +15638,9 @@
         <f>VLOOKUP(B33,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N33" s="54"/>
+      <c r="N33" s="54" t="s">
+        <v>93</v>
+      </c>
       <c r="O33" s="44" cm="1">
         <f t="array" ref="O33:Q33">VLOOKUP(B33,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>15000</v>
@@ -15641,7 +15703,9 @@
         <f>VLOOKUP(B34,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>5000</v>
       </c>
-      <c r="N34" s="54"/>
+      <c r="N34" s="54" t="s">
+        <v>93</v>
+      </c>
       <c r="O34" s="44" cm="1">
         <f t="array" ref="O34:Q34">VLOOKUP(B34,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>15000</v>
@@ -15704,7 +15768,9 @@
         <f>VLOOKUP(B35,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N35" s="54"/>
+      <c r="N35" s="54" t="s">
+        <v>92</v>
+      </c>
       <c r="O35" s="44" cm="1">
         <f t="array" ref="O35:Q35">VLOOKUP(B35,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
@@ -15767,7 +15833,9 @@
         <f>VLOOKUP(B36,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,3,FALSE)</f>
         <v>15000</v>
       </c>
-      <c r="N36" s="56"/>
+      <c r="N36" s="56" t="s">
+        <v>92</v>
+      </c>
       <c r="O36" s="46" cm="1">
         <f t="array" ref="O36:Q36">VLOOKUP(B36,'[2]Consumer Scheme 08.01.2026'!$B$2:$I$370,{6,7,8},FALSE)</f>
         <v>23000</v>
@@ -16047,6 +16115,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060EDED336F4AC345937821C4378B0575" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="494f29b6abfd1a658fb4a91257319fb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cc81ea25-3c65-47fe-b799-37236d34457b" xmlns:ns4="3aa501bf-b653-40a4-9ae9-61a4d1229c70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79a9a6d6e67940bfc0c15f927b8771f4" ns3:_="" ns4:_="">
     <xsd:import namespace="cc81ea25-3c65-47fe-b799-37236d34457b"/>
@@ -16269,12 +16343,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
   <ds:schemaRefs>
@@ -16284,6 +16352,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6B08E05-D3E6-4391-8AA6-C9B1EA9A23D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16300,13 +16377,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>